--- a/data/outputs/OR_elsevier/26.xlsx
+++ b/data/outputs/OR_elsevier/26.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS124"/>
+  <dimension ref="A1:BU124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -944,6 +954,12 @@
         <is>
           <t>2-s2.0-84953319524</t>
         </is>
+      </c>
+      <c r="BT2" t="n">
+        <v>607</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84953271831</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>781</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1363,6 +1385,12 @@
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1573,6 +1601,12 @@
         <is>
           <t>2-s2.0-84949315326</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>1333</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1781,6 +1815,12 @@
           <t>2-s2.0-84953366072</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>647</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1995,6 +2035,12 @@
         <is>
           <t>2-s2.0-84953293719</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>951</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2203,6 +2249,12 @@
           <t>2-s2.0-84953347124</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>817</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2410,6 +2462,12 @@
           <t>2-s2.0-84953235245</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1452</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2633,6 +2691,12 @@
           <t>2-s2.0-84953362653</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>837</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2850,6 +2914,12 @@
           <t>2-s2.0-84953355958</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>5284</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3065,6 +3135,12 @@
           <t>2-s2.0-84953352292</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>381</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3287,6 +3363,12 @@
         <is>
           <t>2-s2.0-84953345471</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>381</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3491,6 +3573,12 @@
           <t>2-s2.0-84953354661</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>359</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3710,6 +3798,12 @@
           <t>2-s2.0-84953214804</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>503</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3924,6 +4018,12 @@
         <is>
           <t>2-s2.0-84953346539</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>507</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -4132,6 +4232,12 @@
           <t>2-s2.0-84953355701</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>966</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4342,6 +4448,12 @@
         <is>
           <t>2-s2.0-84953371126</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>1020</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -4550,6 +4662,12 @@
           <t>2-s2.0-84953346059</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>655</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4765,6 +4883,12 @@
           <t>2-s2.0-84953369715</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2649</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4980,6 +5104,12 @@
           <t>2-s2.0-84953368964</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1101</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5198,6 +5328,12 @@
         <is>
           <t>2-s2.0-84953348345</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>1265</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -5406,6 +5542,12 @@
           <t>2-s2.0-84953361453</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2876</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5616,6 +5758,12 @@
         <is>
           <t>2-s2.0-84953234435</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>883</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -5824,6 +5972,12 @@
           <t>2-s2.0-84953260409</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>662</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6039,6 +6193,12 @@
           <t>2-s2.0-84953278253</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2719</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6257,6 +6417,12 @@
         <is>
           <t>2-s2.0-84953358669</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>969</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -6465,6 +6631,12 @@
           <t>2-s2.0-84953371269</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>970</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6680,6 +6852,12 @@
           <t>2-s2.0-84953369425</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1612</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6901,6 +7079,12 @@
           <t>2-s2.0-84953349149</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>5752</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7116,6 +7300,12 @@
           <t>2-s2.0-84953366448</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>606</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7326,6 +7516,12 @@
         <is>
           <t>2-s2.0-84953365857</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>921</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -7534,6 +7730,12 @@
           <t>2-s2.0-84931459459</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1109</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7752,6 +7954,12 @@
         <is>
           <t>2-s2.0-84949749442</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>797</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -7964,6 +8172,12 @@
           <t>2-s2.0-84919360669</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>926</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8175,6 +8389,12 @@
           <t>2-s2.0-84909960164</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>712</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8386,6 +8606,12 @@
           <t>2-s2.0-84951904305</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>585</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8609,6 +8835,12 @@
           <t>2-s2.0-84908409081</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>249</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8836,6 +9068,12 @@
           <t>2-s2.0-84951880607</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1332</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9059,6 +9297,12 @@
           <t>2-s2.0-84951890817</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1399</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9277,6 +9521,12 @@
         <is>
           <t>2-s2.0-84928717428</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>1205</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -9485,6 +9735,12 @@
           <t>2-s2.0-84938718684</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>262</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9703,6 +9959,12 @@
         <is>
           <t>2-s2.0-84926676840</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>1007</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -9911,6 +10173,12 @@
           <t>2-s2.0-84926687928</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>255</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10122,6 +10390,12 @@
           <t>2-s2.0-84949813651</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>885</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10329,6 +10603,12 @@
           <t>2-s2.0-84949801332</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1272</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10540,6 +10820,12 @@
           <t>2-s2.0-84954051979</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>581</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10751,6 +11037,12 @@
           <t>2-s2.0-84954061418</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>5938</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10966,6 +11258,12 @@
           <t>2-s2.0-84954038840</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>2399</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11181,6 +11479,12 @@
           <t>2-s2.0-84954058505</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>3783</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11404,6 +11708,12 @@
           <t>2-s2.0-84954070118</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1018</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11622,6 +11932,12 @@
         <is>
           <t>2-s2.0-84942781886</t>
         </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>2951</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -11830,6 +12146,12 @@
           <t>2-s2.0-84954040320</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1013</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12041,6 +12363,12 @@
           <t>2-s2.0-84951986222</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1269</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12260,6 +12588,12 @@
           <t>2-s2.0-84954043715</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>1097</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12479,6 +12813,12 @@
           <t>2-s2.0-84954040624</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1504</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12694,6 +13034,12 @@
           <t>2-s2.0-84954054512</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>761</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12917,6 +13263,12 @@
           <t>2-s2.0-84954061201</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>5082</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13140,6 +13492,12 @@
           <t>2-s2.0-84954069273</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>2491</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13355,6 +13713,12 @@
           <t>2-s2.0-84953359635</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>2046</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13578,6 +13942,12 @@
           <t>2-s2.0-84951843415</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>1369</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13793,6 +14163,12 @@
           <t>2-s2.0-84953301352</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>5752</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14009,6 +14385,12 @@
         <is>
           <t>2-s2.0-84953363661</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>1325</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -14216,6 +14598,12 @@
         <is>
           <t>2-s2.0-84953272978</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>532</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -14424,6 +14812,12 @@
           <t>2-s2.0-84929833035</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>216</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14647,6 +15041,12 @@
           <t>2-s2.0-84928606583</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>10064</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14874,6 +15274,12 @@
           <t>2-s2.0-84927637067</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>958</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15093,6 +15499,12 @@
           <t>2-s2.0-84944107348</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>4098</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15325,6 +15737,12 @@
         <is>
           <t>2-s2.0-84954047904</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>1376</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="70">
@@ -15541,6 +15959,12 @@
           <t>2-s2.0-84930005696</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>580</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15746,6 +16170,12 @@
           <t>2-s2.0-84929583943</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>997</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15959,6 +16389,12 @@
           <t>2-s2.0-84929999575</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>545</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16164,6 +16600,12 @@
           <t>2-s2.0-84930006524</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1292</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16369,6 +16811,12 @@
           <t>2-s2.0-84929594056</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>3184</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16578,6 +17026,12 @@
           <t>2-s2.0-84930008647</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>1496</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16791,6 +17245,12 @@
           <t>2-s2.0-84940564586</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1462</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16996,6 +17456,12 @@
           <t>2-s2.0-84930009593</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>588</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17201,6 +17667,12 @@
           <t>2-s2.0-84930674991</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>587</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17414,6 +17886,12 @@
           <t>2-s2.0-84931266494</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>592</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17623,6 +18101,12 @@
           <t>2-s2.0-84932642125</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>1268</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17840,6 +18324,12 @@
           <t>2-s2.0-84941551081</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>750</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18045,6 +18535,12 @@
           <t>2-s2.0-84937203669</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>2041</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18258,6 +18754,12 @@
           <t>2-s2.0-84942297503</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>682</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18463,6 +18965,12 @@
           <t>2-s2.0-84942293008</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>819</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18676,6 +19184,12 @@
           <t>2-s2.0-84942295672</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1144</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18897,6 +19411,12 @@
           <t>2-s2.0-84942297350</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1784</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19118,6 +19638,12 @@
           <t>2-s2.0-84930872341</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>748</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19323,6 +19849,12 @@
           <t>2-s2.0-84942295735</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>2607</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19540,6 +20072,12 @@
           <t>2-s2.0-84942297550</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1264</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19745,6 +20283,12 @@
           <t>2-s2.0-84942293663</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>530</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19962,6 +20506,12 @@
           <t>2-s2.0-84942294486</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>1977</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20171,6 +20721,12 @@
           <t>2-s2.0-84930005911</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>614</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20388,6 +20944,12 @@
           <t>2-s2.0-84930009562</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1266</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20609,6 +21171,12 @@
           <t>2-s2.0-84930010113</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>820</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20822,6 +21390,12 @@
           <t>2-s2.0-84942295096</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>981</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21037,6 +21611,12 @@
           <t>2-s2.0-84928723292</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>1417</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21246,6 +21826,12 @@
           <t>2-s2.0-84928719455</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1220</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21467,6 +22053,12 @@
           <t>2-s2.0-84928745010</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>1109</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21680,6 +22272,12 @@
           <t>2-s2.0-84928747373</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>2207</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21897,6 +22495,12 @@
           <t>2-s2.0-84928712116</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>2253</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22102,6 +22706,12 @@
           <t>2-s2.0-84928752319</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>929</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22315,6 +22925,12 @@
           <t>2-s2.0-84926653405</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>950</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22520,6 +23136,12 @@
           <t>2-s2.0-84928721633</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>363</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22725,6 +23347,12 @@
           <t>2-s2.0-84928752176</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>1585</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22934,6 +23562,12 @@
           <t>2-s2.0-84928729501</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>1441</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23151,6 +23785,12 @@
           <t>2-s2.0-84928736590</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>721</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23356,6 +23996,12 @@
           <t>2-s2.0-84928709467</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>682</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23569,6 +24215,12 @@
           <t>2-s2.0-84928724998</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>617</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23790,6 +24442,12 @@
           <t>2-s2.0-84928723980</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>618</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24003,6 +24661,12 @@
           <t>2-s2.0-84928768148</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>417</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24208,6 +24872,12 @@
           <t>2-s2.0-84928726052</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>827</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24421,6 +25091,12 @@
           <t>2-s2.0-84928723864</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>1589</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24640,6 +25316,12 @@
           <t>2-s2.0-84928722532</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>4174</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24853,6 +25535,12 @@
           <t>2-s2.0-84928743035</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>1889</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25054,6 +25742,12 @@
           <t>2-s2.0-84928735108</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>3424</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25275,6 +25969,12 @@
           <t>2-s2.0-84927727859</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>5173</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25492,6 +26192,12 @@
           <t>2-s2.0-84922290097</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>1440</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25697,6 +26403,12 @@
           <t>2-s2.0-84927711605</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>741</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25902,6 +26614,12 @@
           <t>2-s2.0-84927779752</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>961</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26115,6 +26833,12 @@
           <t>2-s2.0-84927708241</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>691</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26336,6 +27060,12 @@
           <t>2-s2.0-84926317536</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>6674</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26541,6 +27271,12 @@
           <t>2-s2.0-84927725507</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>775</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26758,6 +27494,12 @@
           <t>2-s2.0-84926455388</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>2291</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26981,6 +27723,12 @@
           <t>2-s2.0-84927743766</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>1759</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
